--- a/timing/time_sheet.xlsx
+++ b/timing/time_sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="54">
   <si>
     <t>1.</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Understand MVC structure</t>
+  </si>
+  <si>
+    <t>Show info from DB - list all records / functional pagination</t>
   </si>
 </sst>
 </file>
@@ -538,9 +541,6 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,24 +598,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -634,10 +616,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -949,10 +952,10 @@
   <dimension ref="A1:GQ100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q41" sqref="Q41"/>
+      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -960,7 +963,7 @@
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="48" customWidth="1"/>
     <col min="5" max="5" width="63.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="273" width="3.28515625" style="1" customWidth="1"/>
@@ -968,58 +971,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:199" x14ac:dyDescent="0.25">
-      <c r="B1" s="40"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="P1" s="62" t="s">
+      <c r="D1" s="57"/>
+      <c r="P1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
       <c r="S1" s="21"/>
       <c r="T1" s="22"/>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="20"/>
       <c r="AA1" s="23"/>
-      <c r="AB1" s="51" t="s">
+      <c r="AB1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
       <c r="AG1" s="20"/>
       <c r="AH1" s="24"/>
-      <c r="AI1" s="51" t="s">
+      <c r="AI1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="52"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="56"/>
     </row>
     <row r="2" spans="1:199" x14ac:dyDescent="0.25">
-      <c r="B2" s="42"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:199" x14ac:dyDescent="0.25">
-      <c r="B3" s="41"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="12"/>
       <c r="G3" s="15" t="s">
         <v>14</v>
@@ -1081,10 +1084,10 @@
       <c r="Z3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AB3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="AC3" s="16" t="s">
@@ -1603,779 +1606,779 @@
       <c r="C4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <f t="shared" ref="F4:AN4" si="0">SUM(F6:F100)</f>
-        <v>17</v>
-      </c>
-      <c r="G4" s="36">
+        <v>25</v>
+      </c>
+      <c r="G4" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="36">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="36">
+        <v>3</v>
+      </c>
+      <c r="S4" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="36">
+        <v>2</v>
+      </c>
+      <c r="T4" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="36">
+        <v>3</v>
+      </c>
+      <c r="U4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V4" s="37">
+      <c r="V4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4" s="37">
+      <c r="W4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X4" s="36">
+      <c r="X4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="36">
+      <c r="Y4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="36">
+      <c r="Z4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="36">
+      <c r="AA4" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="36">
+      <c r="AB4" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="37">
+      <c r="AC4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="37">
+      <c r="AD4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="36">
+      <c r="AE4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="36">
+      <c r="AF4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="36">
+      <c r="AG4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH4" s="36">
+      <c r="AH4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI4" s="36">
+      <c r="AI4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ4" s="37">
+      <c r="AJ4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK4" s="37">
+      <c r="AK4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL4" s="36">
+      <c r="AL4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM4" s="36">
+      <c r="AM4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN4" s="36">
+      <c r="AN4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO4" s="36">
+      <c r="AO4" s="35">
         <f t="shared" ref="AO4:CZ4" si="1">SUM(AO6:AO100)</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="36">
+      <c r="AP4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ4" s="37">
+      <c r="AQ4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AR4" s="37">
+      <c r="AR4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS4" s="36">
+      <c r="AS4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AT4" s="36">
+      <c r="AT4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU4" s="36">
+      <c r="AU4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AV4" s="36">
+      <c r="AV4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AW4" s="36">
+      <c r="AW4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AX4" s="37">
+      <c r="AX4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY4" s="37">
+      <c r="AY4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AZ4" s="36">
+      <c r="AZ4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BA4" s="36">
+      <c r="BA4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BB4" s="36">
+      <c r="BB4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BC4" s="36">
+      <c r="BC4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BD4" s="36">
+      <c r="BD4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BE4" s="37">
+      <c r="BE4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BF4" s="37">
+      <c r="BF4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG4" s="36">
+      <c r="BG4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BH4" s="36">
+      <c r="BH4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BI4" s="36">
+      <c r="BI4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ4" s="36">
+      <c r="BJ4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BK4" s="36">
+      <c r="BK4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BL4" s="37">
+      <c r="BL4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BM4" s="37">
+      <c r="BM4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BN4" s="36">
+      <c r="BN4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BO4" s="36">
+      <c r="BO4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BP4" s="36">
+      <c r="BP4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BQ4" s="36">
+      <c r="BQ4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BR4" s="36">
+      <c r="BR4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BS4" s="37">
+      <c r="BS4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BT4" s="37">
+      <c r="BT4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BU4" s="36">
+      <c r="BU4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BV4" s="36">
+      <c r="BV4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BW4" s="36">
+      <c r="BW4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BX4" s="38">
+      <c r="BX4" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BY4" s="38">
+      <c r="BY4" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BZ4" s="37">
+      <c r="BZ4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CA4" s="37">
+      <c r="CA4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CB4" s="38">
+      <c r="CB4" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CC4" s="38">
+      <c r="CC4" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CD4" s="38">
+      <c r="CD4" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CE4" s="38">
+      <c r="CE4" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CF4" s="38">
+      <c r="CF4" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CG4" s="37">
+      <c r="CG4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CH4" s="37">
+      <c r="CH4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CI4" s="38">
+      <c r="CI4" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CJ4" s="38">
+      <c r="CJ4" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CK4" s="39">
+      <c r="CK4" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CL4" s="38">
+      <c r="CL4" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CM4" s="38">
+      <c r="CM4" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CN4" s="37">
+      <c r="CN4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CO4" s="37">
+      <c r="CO4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CP4" s="36">
+      <c r="CP4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CQ4" s="36">
+      <c r="CQ4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CR4" s="36">
+      <c r="CR4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CS4" s="36">
+      <c r="CS4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CT4" s="36">
+      <c r="CT4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CU4" s="37">
+      <c r="CU4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CV4" s="37">
+      <c r="CV4" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CW4" s="36">
+      <c r="CW4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX4" s="36">
+      <c r="CX4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CY4" s="36">
+      <c r="CY4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CZ4" s="36">
+      <c r="CZ4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DA4" s="36">
+      <c r="DA4" s="35">
         <f t="shared" ref="DA4:FL4" si="2">SUM(DA6:DA100)</f>
         <v>0</v>
       </c>
-      <c r="DB4" s="37">
+      <c r="DB4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DC4" s="37">
+      <c r="DC4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DD4" s="36">
+      <c r="DD4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DE4" s="36">
+      <c r="DE4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DF4" s="36">
+      <c r="DF4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DG4" s="36">
+      <c r="DG4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DH4" s="36">
+      <c r="DH4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DI4" s="37">
+      <c r="DI4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DJ4" s="37">
+      <c r="DJ4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DK4" s="36">
+      <c r="DK4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DL4" s="36">
+      <c r="DL4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DM4" s="36">
+      <c r="DM4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DN4" s="36">
+      <c r="DN4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DO4" s="36">
+      <c r="DO4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DP4" s="37">
+      <c r="DP4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DQ4" s="37">
+      <c r="DQ4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DR4" s="36">
+      <c r="DR4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DS4" s="36">
+      <c r="DS4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DT4" s="36">
+      <c r="DT4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DU4" s="36">
+      <c r="DU4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DV4" s="36">
+      <c r="DV4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DW4" s="37">
+      <c r="DW4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DX4" s="37">
+      <c r="DX4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DY4" s="36">
+      <c r="DY4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="DZ4" s="36">
+      <c r="DZ4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EA4" s="36">
+      <c r="EA4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EB4" s="36">
+      <c r="EB4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EC4" s="36">
+      <c r="EC4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="ED4" s="37">
+      <c r="ED4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EE4" s="37">
+      <c r="EE4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EF4" s="36">
+      <c r="EF4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EG4" s="36">
+      <c r="EG4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EH4" s="36">
+      <c r="EH4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EI4" s="36">
+      <c r="EI4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EJ4" s="36">
+      <c r="EJ4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EK4" s="37">
+      <c r="EK4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EL4" s="37">
+      <c r="EL4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EM4" s="36">
+      <c r="EM4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EN4" s="36">
+      <c r="EN4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EO4" s="36">
+      <c r="EO4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EP4" s="36">
+      <c r="EP4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EQ4" s="36">
+      <c r="EQ4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="ER4" s="37">
+      <c r="ER4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="ES4" s="37">
+      <c r="ES4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="ET4" s="36">
+      <c r="ET4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EU4" s="36">
+      <c r="EU4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EV4" s="36">
+      <c r="EV4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EW4" s="36">
+      <c r="EW4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EX4" s="36">
+      <c r="EX4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EY4" s="37">
+      <c r="EY4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EZ4" s="37">
+      <c r="EZ4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FA4" s="36">
+      <c r="FA4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FB4" s="36">
+      <c r="FB4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FC4" s="36">
+      <c r="FC4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FD4" s="36">
+      <c r="FD4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FE4" s="36">
+      <c r="FE4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FF4" s="37">
+      <c r="FF4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FG4" s="37">
+      <c r="FG4" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FH4" s="36">
+      <c r="FH4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FI4" s="36">
+      <c r="FI4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FJ4" s="36">
+      <c r="FJ4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FK4" s="36">
+      <c r="FK4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FL4" s="36">
+      <c r="FL4" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FM4" s="37">
+      <c r="FM4" s="36">
         <f t="shared" ref="FM4:GP4" si="3">SUM(FM6:FM100)</f>
         <v>0</v>
       </c>
-      <c r="FN4" s="37">
+      <c r="FN4" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="FO4" s="36">
+      <c r="FO4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="FP4" s="36">
+      <c r="FP4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="FQ4" s="36">
+      <c r="FQ4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="FR4" s="36">
+      <c r="FR4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="FS4" s="36">
+      <c r="FS4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="FT4" s="37">
+      <c r="FT4" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="FU4" s="37">
+      <c r="FU4" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="FV4" s="36">
+      <c r="FV4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="FW4" s="36">
+      <c r="FW4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="FX4" s="36">
+      <c r="FX4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="FY4" s="36">
+      <c r="FY4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="FZ4" s="36">
+      <c r="FZ4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GA4" s="37">
+      <c r="GA4" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GB4" s="37">
+      <c r="GB4" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GC4" s="36">
+      <c r="GC4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GD4" s="36">
+      <c r="GD4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GE4" s="36">
+      <c r="GE4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GF4" s="36">
+      <c r="GF4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GG4" s="36">
+      <c r="GG4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GH4" s="37">
+      <c r="GH4" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GI4" s="37">
+      <c r="GI4" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GJ4" s="36">
+      <c r="GJ4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GK4" s="36">
+      <c r="GK4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GL4" s="36">
+      <c r="GL4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GM4" s="36">
+      <c r="GM4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GN4" s="39">
+      <c r="GN4" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GO4" s="39">
+      <c r="GO4" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GP4" s="37">
+      <c r="GP4" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2387,11 +2390,11 @@
       <c r="C5" s="25">
         <v>2018</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="43" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="26">
@@ -2454,10 +2457,10 @@
       <c r="Z5" s="26">
         <v>43264</v>
       </c>
-      <c r="AA5" s="26">
+      <c r="AA5" s="28">
         <v>43265</v>
       </c>
-      <c r="AB5" s="26">
+      <c r="AB5" s="28">
         <v>43266</v>
       </c>
       <c r="AC5" s="27">
@@ -2975,20 +2978,20 @@
       </c>
     </row>
     <row r="6" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>1.1000000000000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="33">
-        <f>SUM(G6:FM6)</f>
+      <c r="F6" s="32">
+        <f t="shared" ref="F6:F37" si="4">SUM(G6:FM6)</f>
         <v>1</v>
       </c>
       <c r="G6" s="1">
@@ -3056,16 +3059,16 @@
       <c r="GP6" s="7"/>
     </row>
     <row r="7" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="46">
+      <c r="B7" s="53"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45">
         <v>1.2</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="34">
-        <f>SUM(G7:FM7)</f>
+      <c r="F7" s="33">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H7" s="7">
@@ -3132,16 +3135,16 @@
       <c r="GP7" s="7"/>
     </row>
     <row r="8" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="60"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="46">
+      <c r="B8" s="53"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="45">
         <v>1.3</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="34">
-        <f>SUM(G8:FM8)</f>
+      <c r="F8" s="33">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H8" s="7"/>
@@ -3208,16 +3211,16 @@
       <c r="GP8" s="7"/>
     </row>
     <row r="9" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="46">
+      <c r="B9" s="53"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="45">
         <v>1.4</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="34">
-        <f>SUM(G9:FM9)</f>
+      <c r="F9" s="33">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H9" s="7"/>
@@ -3287,16 +3290,16 @@
       <c r="GP9" s="7"/>
     </row>
     <row r="10" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="60"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="46">
+      <c r="B10" s="53"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="45">
         <v>1.5</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="34">
-        <f>SUM(G10:FM10)</f>
+      <c r="F10" s="33">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H10" s="7"/>
@@ -3366,16 +3369,16 @@
       <c r="GP10" s="7"/>
     </row>
     <row r="11" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="60"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="46">
+      <c r="B11" s="53"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="45">
         <v>1.6</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="34">
-        <f>SUM(G11:FM11)</f>
+      <c r="F11" s="33">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H11" s="7"/>
@@ -3442,14 +3445,14 @@
       <c r="GP11" s="7"/>
     </row>
     <row r="12" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="60"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="46">
+      <c r="B12" s="53"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="45">
         <v>1.7</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="34">
-        <f>SUM(G12:FM12)</f>
+      <c r="F12" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H12" s="7"/>
@@ -3514,14 +3517,14 @@
       <c r="GP12" s="7"/>
     </row>
     <row r="13" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="60"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="46">
+      <c r="B13" s="53"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="45">
         <v>1.8</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="34">
-        <f>SUM(G13:FM13)</f>
+      <c r="F13" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H13" s="7"/>
@@ -3586,14 +3589,14 @@
       <c r="GP13" s="7"/>
     </row>
     <row r="14" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="60"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="46">
+      <c r="B14" s="53"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="45">
         <v>1.9</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="34">
-        <f>SUM(G14:FM14)</f>
+      <c r="F14" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H14" s="7"/>
@@ -3658,14 +3661,14 @@
       <c r="GP14" s="7"/>
     </row>
     <row r="15" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="60"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="47">
+      <c r="B15" s="53"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="46">
         <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="34">
-        <f>SUM(G15:FM15)</f>
+      <c r="F15" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H15" s="7"/>
@@ -3730,14 +3733,14 @@
       <c r="GP15" s="7"/>
     </row>
     <row r="16" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="61"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="45"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="35">
-        <f>SUM(G16:FM16)</f>
+      <c r="F16" s="34">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H16" s="7"/>
@@ -3802,18 +3805,18 @@
       <c r="GP16" s="7"/>
     </row>
     <row r="17" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="47">
         <v>2.1</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="33">
-        <f>SUM(G17:FM17)</f>
+      <c r="F17" s="32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H17" s="7"/>
@@ -3878,17 +3881,17 @@
       <c r="GP17" s="7"/>
     </row>
     <row r="18" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="60"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="46">
+      <c r="B18" s="53"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="45">
         <v>2.2000000000000002</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="34">
-        <f>SUM(G18:FM18)</f>
-        <v>1</v>
+      <c r="F18" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -3898,6 +3901,9 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="1">
         <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>3</v>
       </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
@@ -3955,14 +3961,14 @@
       <c r="GP18" s="7"/>
     </row>
     <row r="19" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="60"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="46">
+      <c r="B19" s="53"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="45">
         <v>2.2999999999999998</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="34">
-        <f>SUM(G19:FM19)</f>
+      <c r="F19" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H19" s="7"/>
@@ -4027,14 +4033,14 @@
       <c r="GP19" s="7"/>
     </row>
     <row r="20" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="60"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="46">
+      <c r="B20" s="53"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="45">
         <v>2.4</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="34">
-        <f>SUM(G20:FM20)</f>
+      <c r="F20" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H20" s="7"/>
@@ -4099,14 +4105,14 @@
       <c r="GP20" s="7"/>
     </row>
     <row r="21" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="60"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="46">
+      <c r="B21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="45">
         <v>2.5</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="34">
-        <f>SUM(G21:FM21)</f>
+      <c r="F21" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H21" s="7"/>
@@ -4171,14 +4177,14 @@
       <c r="GP21" s="7"/>
     </row>
     <row r="22" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="60"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="46">
+      <c r="B22" s="53"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="45">
         <v>2.6</v>
       </c>
       <c r="E22" s="12"/>
-      <c r="F22" s="34">
-        <f>SUM(G22:FM22)</f>
+      <c r="F22" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H22" s="7"/>
@@ -4243,14 +4249,14 @@
       <c r="GP22" s="7"/>
     </row>
     <row r="23" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="60"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="46">
+      <c r="B23" s="53"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="45">
         <v>2.7</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="34">
-        <f>SUM(G23:FM23)</f>
+      <c r="F23" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H23" s="7"/>
@@ -4315,14 +4321,14 @@
       <c r="GP23" s="7"/>
     </row>
     <row r="24" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="60"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="46">
+      <c r="B24" s="53"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="45">
         <v>2.8</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="34">
-        <f>SUM(G24:FM24)</f>
+      <c r="F24" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H24" s="7"/>
@@ -4387,14 +4393,14 @@
       <c r="GP24" s="7"/>
     </row>
     <row r="25" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="60"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="46">
+      <c r="B25" s="53"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="45">
         <v>2.9</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="34">
-        <f>SUM(G25:FM25)</f>
+      <c r="F25" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H25" s="7"/>
@@ -4459,14 +4465,14 @@
       <c r="GP25" s="7"/>
     </row>
     <row r="26" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="61"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="45"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="35">
-        <f>SUM(G26:FM26)</f>
+      <c r="F26" s="34">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H26" s="7"/>
@@ -4531,20 +4537,20 @@
       <c r="GP26" s="7"/>
     </row>
     <row r="27" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="47">
         <v>3.1</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="33">
-        <f>SUM(G27:FM27)</f>
+      <c r="F27" s="32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H27" s="7"/>
@@ -4609,14 +4615,14 @@
       <c r="GP27" s="7"/>
     </row>
     <row r="28" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="60"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="46">
+      <c r="B28" s="53"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="45">
         <v>3.2</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="34">
-        <f>SUM(G28:FM28)</f>
+      <c r="F28" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H28" s="7"/>
@@ -4681,16 +4687,16 @@
       <c r="GP28" s="7"/>
     </row>
     <row r="29" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="46">
+      <c r="B29" s="53"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="45">
         <v>3.3</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="34">
-        <f>SUM(G29:FM29)</f>
+      <c r="F29" s="33">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H29" s="7"/>
@@ -4757,16 +4763,16 @@
       <c r="GP29" s="7"/>
     </row>
     <row r="30" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="60"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="46">
+      <c r="B30" s="53"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="45">
         <v>3.4</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="34">
-        <f>SUM(G30:FM30)</f>
+      <c r="F30" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H30" s="7"/>
@@ -4831,16 +4837,16 @@
       <c r="GP30" s="7"/>
     </row>
     <row r="31" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="60"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="46">
+      <c r="B31" s="53"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="45">
         <v>3.5</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="34">
-        <f>SUM(G31:FM31)</f>
+      <c r="F31" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H31" s="7"/>
@@ -4905,16 +4911,16 @@
       <c r="GP31" s="7"/>
     </row>
     <row r="32" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="60"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="46">
+      <c r="B32" s="53"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="45">
         <v>3.6</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="34">
-        <f>SUM(G32:FM32)</f>
+      <c r="F32" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H32" s="7"/>
@@ -4979,14 +4985,14 @@
       <c r="GP32" s="7"/>
     </row>
     <row r="33" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="60"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="46">
+      <c r="B33" s="53"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="45">
         <v>3.7</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="34">
-        <f>SUM(G33:FM33)</f>
+      <c r="F33" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H33" s="7"/>
@@ -5051,14 +5057,14 @@
       <c r="GP33" s="7"/>
     </row>
     <row r="34" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="60"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="46">
+      <c r="B34" s="53"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="45">
         <v>3.8</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="34">
-        <f>SUM(G34:FM34)</f>
+      <c r="F34" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H34" s="7"/>
@@ -5123,14 +5129,14 @@
       <c r="GP34" s="7"/>
     </row>
     <row r="35" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="60"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="46">
+      <c r="B35" s="53"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="45">
         <v>3.9</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="34">
-        <f>SUM(G35:FM35)</f>
+      <c r="F35" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H35" s="7"/>
@@ -5195,14 +5201,14 @@
       <c r="GP35" s="7"/>
     </row>
     <row r="36" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="61"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="45"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="35">
-        <f>SUM(G36:FM36)</f>
+      <c r="F36" s="34">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H36" s="7"/>
@@ -5267,20 +5273,20 @@
       <c r="GP36" s="7"/>
     </row>
     <row r="37" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="47">
         <v>4.0999999999999996</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="33">
-        <f>SUM(G37:FM37)</f>
+      <c r="F37" s="32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H37" s="7"/>
@@ -5345,16 +5351,16 @@
       <c r="GP37" s="7"/>
     </row>
     <row r="38" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="60"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="46">
+      <c r="B38" s="53"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="45">
         <v>4.2</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="34">
-        <f>SUM(G38:FM38)</f>
+      <c r="F38" s="33">
+        <f t="shared" ref="F38:F69" si="5">SUM(G38:FM38)</f>
         <v>0</v>
       </c>
       <c r="H38" s="7"/>
@@ -5419,16 +5425,16 @@
       <c r="GP38" s="7"/>
     </row>
     <row r="39" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="60"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="46">
+      <c r="B39" s="53"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="45">
         <v>4.3</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="34">
-        <f>SUM(G39:FM39)</f>
+      <c r="F39" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H39" s="7"/>
@@ -5493,16 +5499,16 @@
       <c r="GP39" s="7"/>
     </row>
     <row r="40" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="60"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="46">
+      <c r="B40" s="53"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="45">
         <v>4.4000000000000004</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="34">
-        <f>SUM(G40:FM40)</f>
+      <c r="F40" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H40" s="7"/>
@@ -5567,16 +5573,16 @@
       <c r="GP40" s="7"/>
     </row>
     <row r="41" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="60"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="46">
+      <c r="B41" s="53"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="45">
         <v>4.5</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="34">
-        <f>SUM(G41:FM41)</f>
+      <c r="F41" s="33">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H41" s="7"/>
@@ -5643,16 +5649,16 @@
       <c r="GP41" s="7"/>
     </row>
     <row r="42" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="60"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="46">
+      <c r="B42" s="53"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="45">
         <v>4.5999999999999996</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="34">
-        <f>SUM(G42:FM42)</f>
+      <c r="F42" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H42" s="7"/>
@@ -5717,14 +5723,14 @@
       <c r="GP42" s="7"/>
     </row>
     <row r="43" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="60"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="46">
+      <c r="B43" s="53"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="45">
         <v>4.7</v>
       </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="34">
-        <f>SUM(G43:FM43)</f>
+      <c r="F43" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H43" s="7"/>
@@ -5789,14 +5795,14 @@
       <c r="GP43" s="7"/>
     </row>
     <row r="44" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="60"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="46">
+      <c r="B44" s="53"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="45">
         <v>4.8</v>
       </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="34">
-        <f>SUM(G44:FM44)</f>
+      <c r="F44" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H44" s="7"/>
@@ -5861,14 +5867,14 @@
       <c r="GP44" s="7"/>
     </row>
     <row r="45" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="60"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="46">
+      <c r="B45" s="53"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="45">
         <v>4.9000000000000004</v>
       </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="34">
-        <f>SUM(G45:FM45)</f>
+      <c r="F45" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H45" s="7"/>
@@ -5933,14 +5939,14 @@
       <c r="GP45" s="7"/>
     </row>
     <row r="46" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="60"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="47">
+      <c r="B46" s="53"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="46">
         <v>4.0999999999999996</v>
       </c>
       <c r="E46" s="12"/>
-      <c r="F46" s="34">
-        <f>SUM(G46:FM46)</f>
+      <c r="F46" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H46" s="7"/>
@@ -6005,14 +6011,14 @@
       <c r="GP46" s="7"/>
     </row>
     <row r="47" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="61"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="45"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="35">
-        <f>SUM(G47:FM47)</f>
+      <c r="F47" s="34">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H47" s="7"/>
@@ -6077,20 +6083,20 @@
       <c r="GP47" s="7"/>
     </row>
     <row r="48" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="48">
+      <c r="D48" s="47">
         <v>5.0999999999999996</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="33">
-        <f>SUM(G48:FM48)</f>
+      <c r="F48" s="32">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H48" s="7"/>
@@ -6155,15 +6161,17 @@
       <c r="GP48" s="7"/>
     </row>
     <row r="49" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="60"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="46">
+      <c r="B49" s="53"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="45">
         <v>5.2</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="34">
-        <f>SUM(G49:FM49)</f>
-        <v>0</v>
+      <c r="E49" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="33">
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6171,6 +6179,12 @@
       <c r="N49" s="9"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
+      <c r="S49" s="1">
+        <v>2</v>
+      </c>
+      <c r="T49" s="1">
+        <v>3</v>
+      </c>
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
       <c r="AC49" s="7"/>
@@ -6227,14 +6241,14 @@
       <c r="GP49" s="7"/>
     </row>
     <row r="50" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="60"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="46">
+      <c r="B50" s="53"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="45">
         <v>5.3</v>
       </c>
       <c r="E50" s="12"/>
-      <c r="F50" s="34">
-        <f>SUM(G50:FM50)</f>
+      <c r="F50" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H50" s="7"/>
@@ -6299,14 +6313,14 @@
       <c r="GP50" s="7"/>
     </row>
     <row r="51" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="60"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="46">
+      <c r="B51" s="53"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="45">
         <v>5.4</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="F51" s="34">
-        <f>SUM(G51:FM51)</f>
+      <c r="F51" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H51" s="7"/>
@@ -6371,14 +6385,14 @@
       <c r="GP51" s="7"/>
     </row>
     <row r="52" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="60"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="46">
+      <c r="B52" s="53"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="45">
         <v>5.5</v>
       </c>
       <c r="E52" s="12"/>
-      <c r="F52" s="34">
-        <f>SUM(G52:FM52)</f>
+      <c r="F52" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H52" s="7"/>
@@ -6443,14 +6457,14 @@
       <c r="GP52" s="7"/>
     </row>
     <row r="53" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="60"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="46">
+      <c r="B53" s="53"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="45">
         <v>5.6</v>
       </c>
       <c r="E53" s="12"/>
-      <c r="F53" s="34">
-        <f>SUM(G53:FM53)</f>
+      <c r="F53" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H53" s="7"/>
@@ -6515,14 +6529,14 @@
       <c r="GP53" s="7"/>
     </row>
     <row r="54" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="60"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="46">
+      <c r="B54" s="53"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="45">
         <v>5.7</v>
       </c>
       <c r="E54" s="12"/>
-      <c r="F54" s="34">
-        <f>SUM(G54:FM54)</f>
+      <c r="F54" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H54" s="7"/>
@@ -6587,14 +6601,14 @@
       <c r="GP54" s="7"/>
     </row>
     <row r="55" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="60"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="46">
+      <c r="B55" s="53"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="45">
         <v>5.8</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="34">
-        <f>SUM(G55:FM55)</f>
+      <c r="F55" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H55" s="7"/>
@@ -6659,14 +6673,14 @@
       <c r="GP55" s="7"/>
     </row>
     <row r="56" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="60"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="46">
+      <c r="B56" s="53"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="45">
         <v>5.9</v>
       </c>
       <c r="E56" s="12"/>
-      <c r="F56" s="34">
-        <f>SUM(G56:FM56)</f>
+      <c r="F56" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H56" s="7"/>
@@ -6731,14 +6745,14 @@
       <c r="GP56" s="7"/>
     </row>
     <row r="57" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="61"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="45"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="35">
-        <f>SUM(G57:FM57)</f>
+      <c r="F57" s="34">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H57" s="7"/>
@@ -6803,18 +6817,18 @@
       <c r="GP57" s="7"/>
     </row>
     <row r="58" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="47">
         <v>6.1</v>
       </c>
       <c r="E58" s="11"/>
-      <c r="F58" s="33">
-        <f>SUM(G58:FM58)</f>
+      <c r="F58" s="32">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H58" s="7"/>
@@ -6879,14 +6893,14 @@
       <c r="GP58" s="7"/>
     </row>
     <row r="59" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="60"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="46">
+      <c r="B59" s="53"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="45">
         <v>6.2</v>
       </c>
       <c r="E59" s="12"/>
-      <c r="F59" s="34">
-        <f>SUM(G59:FM59)</f>
+      <c r="F59" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H59" s="7"/>
@@ -6951,14 +6965,14 @@
       <c r="GP59" s="7"/>
     </row>
     <row r="60" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="60"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="46">
+      <c r="B60" s="53"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="45">
         <v>6.3</v>
       </c>
       <c r="E60" s="12"/>
-      <c r="F60" s="34">
-        <f>SUM(G60:FM60)</f>
+      <c r="F60" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H60" s="7"/>
@@ -7023,14 +7037,14 @@
       <c r="GP60" s="7"/>
     </row>
     <row r="61" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="60"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="46">
+      <c r="B61" s="53"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="45">
         <v>6.4</v>
       </c>
       <c r="E61" s="12"/>
-      <c r="F61" s="34">
-        <f>SUM(G61:FM61)</f>
+      <c r="F61" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H61" s="7"/>
@@ -7095,14 +7109,14 @@
       <c r="GP61" s="7"/>
     </row>
     <row r="62" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="60"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="46">
+      <c r="B62" s="53"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="45">
         <v>6.5</v>
       </c>
       <c r="E62" s="12"/>
-      <c r="F62" s="34">
-        <f>SUM(G62:FM62)</f>
+      <c r="F62" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H62" s="7"/>
@@ -7167,14 +7181,14 @@
       <c r="GP62" s="7"/>
     </row>
     <row r="63" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="60"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="46">
+      <c r="B63" s="53"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="45">
         <v>6.6</v>
       </c>
       <c r="E63" s="12"/>
-      <c r="F63" s="34">
-        <f>SUM(G63:FM63)</f>
+      <c r="F63" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H63" s="7"/>
@@ -7239,14 +7253,14 @@
       <c r="GP63" s="7"/>
     </row>
     <row r="64" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="60"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="46">
+      <c r="B64" s="53"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="45">
         <v>6.7</v>
       </c>
       <c r="E64" s="12"/>
-      <c r="F64" s="34">
-        <f>SUM(G64:FM64)</f>
+      <c r="F64" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H64" s="7"/>
@@ -7311,14 +7325,14 @@
       <c r="GP64" s="7"/>
     </row>
     <row r="65" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="60"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="46">
+      <c r="B65" s="53"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="45">
         <v>6.8</v>
       </c>
       <c r="E65" s="12"/>
-      <c r="F65" s="34">
-        <f>SUM(G65:FM65)</f>
+      <c r="F65" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H65" s="7"/>
@@ -7383,14 +7397,14 @@
       <c r="GP65" s="7"/>
     </row>
     <row r="66" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="60"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="46">
+      <c r="B66" s="53"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="45">
         <v>6.9</v>
       </c>
       <c r="E66" s="12"/>
-      <c r="F66" s="34">
-        <f>SUM(G66:FM66)</f>
+      <c r="F66" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H66" s="7"/>
@@ -7455,14 +7469,14 @@
       <c r="GP66" s="7"/>
     </row>
     <row r="67" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="61"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="45"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="44"/>
       <c r="E67" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="35">
-        <f>SUM(G67:FM67)</f>
+      <c r="F67" s="34">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H67" s="7"/>
@@ -7527,18 +7541,18 @@
       <c r="GP67" s="7"/>
     </row>
     <row r="68" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="48">
+      <c r="D68" s="47">
         <v>7.1</v>
       </c>
       <c r="E68" s="11"/>
-      <c r="F68" s="33">
-        <f>SUM(G68:FM68)</f>
+      <c r="F68" s="32">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H68" s="7"/>
@@ -7603,14 +7617,14 @@
       <c r="GP68" s="7"/>
     </row>
     <row r="69" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="60"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="46">
+      <c r="B69" s="53"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="45">
         <v>7.2</v>
       </c>
       <c r="E69" s="12"/>
-      <c r="F69" s="34">
-        <f>SUM(G69:FM69)</f>
+      <c r="F69" s="33">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H69" s="7"/>
@@ -7675,14 +7689,14 @@
       <c r="GP69" s="7"/>
     </row>
     <row r="70" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="60"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="46">
+      <c r="B70" s="53"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="45">
         <v>7.3</v>
       </c>
       <c r="E70" s="12"/>
-      <c r="F70" s="34">
-        <f>SUM(G70:FM70)</f>
+      <c r="F70" s="33">
+        <f t="shared" ref="F70:F100" si="6">SUM(G70:FM70)</f>
         <v>0</v>
       </c>
       <c r="H70" s="7"/>
@@ -7747,14 +7761,14 @@
       <c r="GP70" s="7"/>
     </row>
     <row r="71" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="60"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="46">
+      <c r="B71" s="53"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="45">
         <v>7.4</v>
       </c>
       <c r="E71" s="12"/>
-      <c r="F71" s="34">
-        <f>SUM(G71:FM71)</f>
+      <c r="F71" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H71" s="7"/>
@@ -7819,14 +7833,14 @@
       <c r="GP71" s="7"/>
     </row>
     <row r="72" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="60"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="46">
+      <c r="B72" s="53"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="45">
         <v>7.5</v>
       </c>
       <c r="E72" s="12"/>
-      <c r="F72" s="34">
-        <f>SUM(G72:FM72)</f>
+      <c r="F72" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H72" s="7"/>
@@ -7891,14 +7905,14 @@
       <c r="GP72" s="7"/>
     </row>
     <row r="73" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="60"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="46">
+      <c r="B73" s="53"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="45">
         <v>7.6</v>
       </c>
       <c r="E73" s="12"/>
-      <c r="F73" s="34">
-        <f>SUM(G73:FM73)</f>
+      <c r="F73" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H73" s="7"/>
@@ -7963,14 +7977,14 @@
       <c r="GP73" s="7"/>
     </row>
     <row r="74" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="60"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="46">
+      <c r="B74" s="53"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="45">
         <v>7.7</v>
       </c>
       <c r="E74" s="12"/>
-      <c r="F74" s="34">
-        <f>SUM(G74:FM74)</f>
+      <c r="F74" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H74" s="7"/>
@@ -8035,14 +8049,14 @@
       <c r="GP74" s="7"/>
     </row>
     <row r="75" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="60"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="46">
+      <c r="B75" s="53"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="45">
         <v>7.8</v>
       </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="34">
-        <f>SUM(G75:FM75)</f>
+      <c r="F75" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H75" s="7"/>
@@ -8107,14 +8121,14 @@
       <c r="GP75" s="7"/>
     </row>
     <row r="76" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76" s="60"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="46">
+      <c r="B76" s="53"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="45">
         <v>7.9</v>
       </c>
       <c r="E76" s="12"/>
-      <c r="F76" s="34">
-        <f>SUM(G76:FM76)</f>
+      <c r="F76" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H76" s="7"/>
@@ -8179,14 +8193,14 @@
       <c r="GP76" s="7"/>
     </row>
     <row r="77" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77" s="61"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="45"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="44"/>
       <c r="E77" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="35">
-        <f>SUM(G77:FM77)</f>
+      <c r="F77" s="34">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H77" s="7"/>
@@ -8251,18 +8265,18 @@
       <c r="GP77" s="7"/>
     </row>
     <row r="78" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="56" t="s">
+      <c r="C78" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="48">
+      <c r="D78" s="47">
         <v>7.1</v>
       </c>
       <c r="E78" s="11"/>
-      <c r="F78" s="33">
-        <f>SUM(G78:FM78)</f>
+      <c r="F78" s="32">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H78" s="7"/>
@@ -8327,14 +8341,14 @@
       <c r="GP78" s="7"/>
     </row>
     <row r="79" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="54"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="46">
+      <c r="B79" s="59"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="45">
         <v>7.2</v>
       </c>
       <c r="E79" s="12"/>
-      <c r="F79" s="34">
-        <f>SUM(G79:FM79)</f>
+      <c r="F79" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H79" s="7"/>
@@ -8399,14 +8413,14 @@
       <c r="GP79" s="7"/>
     </row>
     <row r="80" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="54"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="46">
+      <c r="B80" s="59"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="45">
         <v>7.3</v>
       </c>
       <c r="E80" s="12"/>
-      <c r="F80" s="34">
-        <f>SUM(G80:FM80)</f>
+      <c r="F80" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H80" s="7"/>
@@ -8471,14 +8485,14 @@
       <c r="GP80" s="7"/>
     </row>
     <row r="81" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="54"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="46">
+      <c r="B81" s="59"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="45">
         <v>7.4</v>
       </c>
       <c r="E81" s="12"/>
-      <c r="F81" s="34">
-        <f>SUM(G81:FM81)</f>
+      <c r="F81" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H81" s="7"/>
@@ -8543,14 +8557,14 @@
       <c r="GP81" s="7"/>
     </row>
     <row r="82" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="54"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="46">
+      <c r="B82" s="59"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="45">
         <v>7.5</v>
       </c>
       <c r="E82" s="12"/>
-      <c r="F82" s="34">
-        <f>SUM(G82:FM82)</f>
+      <c r="F82" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H82" s="7"/>
@@ -8615,14 +8629,14 @@
       <c r="GP82" s="7"/>
     </row>
     <row r="83" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="54"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="46">
+      <c r="B83" s="59"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="45">
         <v>7.6</v>
       </c>
       <c r="E83" s="12"/>
-      <c r="F83" s="34">
-        <f>SUM(G83:FM83)</f>
+      <c r="F83" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H83" s="7"/>
@@ -8687,14 +8701,14 @@
       <c r="GP83" s="7"/>
     </row>
     <row r="84" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="54"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="46">
+      <c r="B84" s="59"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="45">
         <v>7.7</v>
       </c>
       <c r="E84" s="12"/>
-      <c r="F84" s="34">
-        <f>SUM(G84:FM84)</f>
+      <c r="F84" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H84" s="7"/>
@@ -8759,14 +8773,14 @@
       <c r="GP84" s="7"/>
     </row>
     <row r="85" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="54"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="46">
+      <c r="B85" s="59"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="45">
         <v>7.8</v>
       </c>
       <c r="E85" s="12"/>
-      <c r="F85" s="34">
-        <f>SUM(G85:FM85)</f>
+      <c r="F85" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H85" s="7"/>
@@ -8831,14 +8845,14 @@
       <c r="GP85" s="7"/>
     </row>
     <row r="86" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="54"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="46">
+      <c r="B86" s="59"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="45">
         <v>7.9</v>
       </c>
       <c r="E86" s="12"/>
-      <c r="F86" s="34">
-        <f>SUM(G86:FM86)</f>
+      <c r="F86" s="33">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H86" s="7"/>
@@ -8903,14 +8917,14 @@
       <c r="GP86" s="7"/>
     </row>
     <row r="87" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="55"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="45"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="44"/>
       <c r="E87" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="35">
-        <f>SUM(G87:FM87)</f>
+      <c r="F87" s="34">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H87" s="7"/>
@@ -8977,7 +8991,7 @@
     <row r="88" spans="2:198" x14ac:dyDescent="0.25">
       <c r="E88" s="8"/>
       <c r="F88" s="3">
-        <f>SUM(G88:FM88)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H88" s="7"/>
@@ -9044,7 +9058,7 @@
     <row r="89" spans="2:198" x14ac:dyDescent="0.25">
       <c r="E89" s="8"/>
       <c r="F89" s="3">
-        <f>SUM(G89:FM89)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H89" s="7"/>
@@ -9111,7 +9125,7 @@
     <row r="90" spans="2:198" x14ac:dyDescent="0.25">
       <c r="E90" s="8"/>
       <c r="F90" s="3">
-        <f>SUM(G90:FM90)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H90" s="7"/>
@@ -9178,7 +9192,7 @@
     <row r="91" spans="2:198" x14ac:dyDescent="0.25">
       <c r="E91" s="8"/>
       <c r="F91" s="3">
-        <f>SUM(G91:FM91)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H91" s="7"/>
@@ -9245,7 +9259,7 @@
     <row r="92" spans="2:198" x14ac:dyDescent="0.25">
       <c r="E92" s="8"/>
       <c r="F92" s="3">
-        <f>SUM(G92:FM92)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H92" s="7"/>
@@ -9312,7 +9326,7 @@
     <row r="93" spans="2:198" x14ac:dyDescent="0.25">
       <c r="E93" s="8"/>
       <c r="F93" s="3">
-        <f>SUM(G93:FM93)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H93" s="7"/>
@@ -9379,7 +9393,7 @@
     <row r="94" spans="2:198" x14ac:dyDescent="0.25">
       <c r="E94" s="8"/>
       <c r="F94" s="3">
-        <f>SUM(G94:FM94)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H94" s="7"/>
@@ -9446,7 +9460,7 @@
     <row r="95" spans="2:198" x14ac:dyDescent="0.25">
       <c r="E95" s="8"/>
       <c r="F95" s="3">
-        <f>SUM(G95:FM95)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H95" s="7"/>
@@ -9513,7 +9527,7 @@
     <row r="96" spans="2:198" x14ac:dyDescent="0.25">
       <c r="E96" s="8"/>
       <c r="F96" s="3">
-        <f>SUM(G96:FM96)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H96" s="7"/>
@@ -9580,7 +9594,7 @@
     <row r="97" spans="5:198" x14ac:dyDescent="0.25">
       <c r="E97" s="8"/>
       <c r="F97" s="3">
-        <f>SUM(G97:FM97)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H97" s="7"/>
@@ -9647,7 +9661,7 @@
     <row r="98" spans="5:198" x14ac:dyDescent="0.25">
       <c r="E98" s="8"/>
       <c r="F98" s="3">
-        <f>SUM(G98:FM98)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H98" s="7"/>
@@ -9714,7 +9728,7 @@
     <row r="99" spans="5:198" x14ac:dyDescent="0.25">
       <c r="E99" s="8"/>
       <c r="F99" s="3">
-        <f>SUM(G99:FM99)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H99" s="7"/>
@@ -9781,7 +9795,7 @@
     <row r="100" spans="5:198" x14ac:dyDescent="0.25">
       <c r="E100" s="8"/>
       <c r="F100" s="3">
-        <f>SUM(G100:FM100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H100" s="7"/>
@@ -9847,16 +9861,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="B78:B87"/>
     <mergeCell ref="C78:C87"/>
     <mergeCell ref="B27:B36"/>
@@ -9870,6 +9874,16 @@
     <mergeCell ref="B37:B47"/>
     <mergeCell ref="B48:B57"/>
     <mergeCell ref="C48:C57"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/timing/time_sheet.xlsx
+++ b/timing/time_sheet.xlsx
@@ -115,40 +115,6 @@
     <t>= recurent</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Project:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CATALOG CLASELE 9 - 12 - MVC simplu</t>
-    </r>
-  </si>
-  <si>
     <t>Define strategy with PL</t>
   </si>
   <si>
@@ -207,6 +173,40 @@
   </si>
   <si>
     <t>Show info from DB - list all records / functional pagination</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CATALOG CLASELE 9 - 12 bazat pe MVC simplu</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -598,6 +598,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -616,32 +628,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,10 +952,10 @@
   <dimension ref="A1:GQ100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="AD22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
+      <selection pane="bottomRight" activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -972,57 +972,57 @@
   <sheetData>
     <row r="1" spans="1:199" x14ac:dyDescent="0.25">
       <c r="B1" s="39"/>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="P1" s="61" t="s">
+      <c r="D1" s="62"/>
+      <c r="P1" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
       <c r="S1" s="21"/>
       <c r="T1" s="22"/>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
       <c r="Z1" s="20"/>
       <c r="AA1" s="23"/>
-      <c r="AB1" s="55" t="s">
+      <c r="AB1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
       <c r="AG1" s="20"/>
       <c r="AH1" s="24"/>
-      <c r="AI1" s="55" t="s">
+      <c r="AI1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="56"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:199" x14ac:dyDescent="0.25">
       <c r="B2" s="41"/>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="1:199" x14ac:dyDescent="0.25">
       <c r="B3" s="40"/>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="12"/>
       <c r="G3" s="15" t="s">
         <v>14</v>
@@ -1607,12 +1607,12 @@
         <v>26</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="49" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ref="F4:AN4" si="0">SUM(F6:F100)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" s="35">
         <f t="shared" si="0"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="AE4" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="35">
         <f t="shared" si="0"/>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="GQ4" s="15"/>
     </row>
-    <row r="5" spans="1:199" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:199" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="13"/>
       <c r="C5" s="25">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="42" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>4</v>
@@ -2978,17 +2978,17 @@
       </c>
     </row>
     <row r="6" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="50" t="s">
+      <c r="B6" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="45">
         <v>1.1000000000000001</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="32">
         <f t="shared" ref="F6:F37" si="4">SUM(G6:FM6)</f>
@@ -3059,13 +3059,13 @@
       <c r="GP6" s="7"/>
     </row>
     <row r="7" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="45">
         <v>1.2</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="33">
         <f t="shared" si="4"/>
@@ -3135,13 +3135,13 @@
       <c r="GP7" s="7"/>
     </row>
     <row r="8" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="45">
         <v>1.3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="33">
         <f t="shared" si="4"/>
@@ -3211,13 +3211,13 @@
       <c r="GP8" s="7"/>
     </row>
     <row r="9" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="45">
         <v>1.4</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="33">
         <f t="shared" si="4"/>
@@ -3290,13 +3290,13 @@
       <c r="GP9" s="7"/>
     </row>
     <row r="10" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="53"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="45">
         <v>1.5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="33">
         <f t="shared" si="4"/>
@@ -3369,13 +3369,13 @@
       <c r="GP10" s="7"/>
     </row>
     <row r="11" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="53"/>
-      <c r="C11" s="50"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="45">
         <v>1.6</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="33">
         <f t="shared" si="4"/>
@@ -3445,8 +3445,8 @@
       <c r="GP11" s="7"/>
     </row>
     <row r="12" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="53"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="45">
         <v>1.7</v>
       </c>
@@ -3517,8 +3517,8 @@
       <c r="GP12" s="7"/>
     </row>
     <row r="13" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="53"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="45">
         <v>1.8</v>
       </c>
@@ -3589,8 +3589,8 @@
       <c r="GP13" s="7"/>
     </row>
     <row r="14" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
-      <c r="C14" s="50"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="45">
         <v>1.9</v>
       </c>
@@ -3661,8 +3661,8 @@
       <c r="GP14" s="7"/>
     </row>
     <row r="15" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="53"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="46">
         <v>1.1000000000000001</v>
       </c>
@@ -3733,8 +3733,8 @@
       <c r="GP15" s="7"/>
     </row>
     <row r="16" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
-      <c r="C16" s="51"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="44"/>
       <c r="E16" s="14" t="s">
         <v>23</v>
@@ -3805,10 +3805,10 @@
       <c r="GP16" s="7"/>
     </row>
     <row r="17" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="53" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="47">
@@ -3881,13 +3881,13 @@
       <c r="GP17" s="7"/>
     </row>
     <row r="18" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="45">
         <v>2.2000000000000002</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="33">
         <f t="shared" si="4"/>
@@ -3961,8 +3961,8 @@
       <c r="GP18" s="7"/>
     </row>
     <row r="19" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="53"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="45">
         <v>2.2999999999999998</v>
       </c>
@@ -4033,8 +4033,8 @@
       <c r="GP19" s="7"/>
     </row>
     <row r="20" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="45">
         <v>2.4</v>
       </c>
@@ -4105,8 +4105,8 @@
       <c r="GP20" s="7"/>
     </row>
     <row r="21" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="53"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="45">
         <v>2.5</v>
       </c>
@@ -4177,8 +4177,8 @@
       <c r="GP21" s="7"/>
     </row>
     <row r="22" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="53"/>
-      <c r="C22" s="50"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="45">
         <v>2.6</v>
       </c>
@@ -4249,8 +4249,8 @@
       <c r="GP22" s="7"/>
     </row>
     <row r="23" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="53"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="45">
         <v>2.7</v>
       </c>
@@ -4321,8 +4321,8 @@
       <c r="GP23" s="7"/>
     </row>
     <row r="24" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="53"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="45">
         <v>2.8</v>
       </c>
@@ -4393,8 +4393,8 @@
       <c r="GP24" s="7"/>
     </row>
     <row r="25" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="53"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="45">
         <v>2.9</v>
       </c>
@@ -4465,8 +4465,8 @@
       <c r="GP25" s="7"/>
     </row>
     <row r="26" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="54"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="44"/>
       <c r="E26" s="14" t="s">
         <v>23</v>
@@ -4537,21 +4537,21 @@
       <c r="GP26" s="7"/>
     </row>
     <row r="27" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="53" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="47">
         <v>3.1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4563,6 +4563,9 @@
       <c r="W27" s="7"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
+      <c r="AE27" s="1">
+        <v>3</v>
+      </c>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
       <c r="AQ27" s="7"/>
@@ -4615,8 +4618,8 @@
       <c r="GP27" s="7"/>
     </row>
     <row r="28" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="53"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="45">
         <v>3.2</v>
       </c>
@@ -4687,13 +4690,13 @@
       <c r="GP28" s="7"/>
     </row>
     <row r="29" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="53"/>
-      <c r="C29" s="50"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="45">
         <v>3.3</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" s="33">
         <f t="shared" si="4"/>
@@ -4763,13 +4766,13 @@
       <c r="GP29" s="7"/>
     </row>
     <row r="30" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="53"/>
-      <c r="C30" s="50"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="45">
         <v>3.4</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" s="33">
         <f t="shared" si="4"/>
@@ -4837,13 +4840,13 @@
       <c r="GP30" s="7"/>
     </row>
     <row r="31" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="53"/>
-      <c r="C31" s="50"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="45">
         <v>3.5</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="33">
         <f t="shared" si="4"/>
@@ -4911,13 +4914,13 @@
       <c r="GP31" s="7"/>
     </row>
     <row r="32" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="53"/>
-      <c r="C32" s="50"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="45">
         <v>3.6</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="33">
         <f t="shared" si="4"/>
@@ -4985,8 +4988,8 @@
       <c r="GP32" s="7"/>
     </row>
     <row r="33" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="53"/>
-      <c r="C33" s="50"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="45">
         <v>3.7</v>
       </c>
@@ -5057,8 +5060,8 @@
       <c r="GP33" s="7"/>
     </row>
     <row r="34" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="53"/>
-      <c r="C34" s="50"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="45">
         <v>3.8</v>
       </c>
@@ -5129,8 +5132,8 @@
       <c r="GP34" s="7"/>
     </row>
     <row r="35" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="53"/>
-      <c r="C35" s="50"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="45">
         <v>3.9</v>
       </c>
@@ -5201,8 +5204,8 @@
       <c r="GP35" s="7"/>
     </row>
     <row r="36" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="54"/>
-      <c r="C36" s="51"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="44"/>
       <c r="E36" s="14" t="s">
         <v>23</v>
@@ -5273,17 +5276,17 @@
       <c r="GP36" s="7"/>
     </row>
     <row r="37" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="53" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="47">
         <v>4.0999999999999996</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="32">
         <f t="shared" si="4"/>
@@ -5351,13 +5354,13 @@
       <c r="GP37" s="7"/>
     </row>
     <row r="38" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="53"/>
-      <c r="C38" s="50"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="45">
         <v>4.2</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" s="33">
         <f t="shared" ref="F38:F69" si="5">SUM(G38:FM38)</f>
@@ -5425,13 +5428,13 @@
       <c r="GP38" s="7"/>
     </row>
     <row r="39" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="53"/>
-      <c r="C39" s="50"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="45">
         <v>4.3</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39" s="33">
         <f t="shared" si="5"/>
@@ -5499,13 +5502,13 @@
       <c r="GP39" s="7"/>
     </row>
     <row r="40" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="53"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="45">
         <v>4.4000000000000004</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="33">
         <f t="shared" si="5"/>
@@ -5573,13 +5576,13 @@
       <c r="GP40" s="7"/>
     </row>
     <row r="41" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="53"/>
-      <c r="C41" s="50"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="45">
         <v>4.5</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" s="33">
         <f t="shared" si="5"/>
@@ -5649,13 +5652,13 @@
       <c r="GP41" s="7"/>
     </row>
     <row r="42" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="53"/>
-      <c r="C42" s="50"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="45">
         <v>4.5999999999999996</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" s="33">
         <f t="shared" si="5"/>
@@ -5723,8 +5726,8 @@
       <c r="GP42" s="7"/>
     </row>
     <row r="43" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="53"/>
-      <c r="C43" s="50"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="45">
         <v>4.7</v>
       </c>
@@ -5795,8 +5798,8 @@
       <c r="GP43" s="7"/>
     </row>
     <row r="44" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="53"/>
-      <c r="C44" s="50"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="45">
         <v>4.8</v>
       </c>
@@ -5867,8 +5870,8 @@
       <c r="GP44" s="7"/>
     </row>
     <row r="45" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="53"/>
-      <c r="C45" s="50"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="45">
         <v>4.9000000000000004</v>
       </c>
@@ -5939,8 +5942,8 @@
       <c r="GP45" s="7"/>
     </row>
     <row r="46" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="53"/>
-      <c r="C46" s="50"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="46">
         <v>4.0999999999999996</v>
       </c>
@@ -6011,8 +6014,8 @@
       <c r="GP46" s="7"/>
     </row>
     <row r="47" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="54"/>
-      <c r="C47" s="51"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="44"/>
       <c r="E47" s="14" t="s">
         <v>23</v>
@@ -6083,17 +6086,17 @@
       <c r="GP47" s="7"/>
     </row>
     <row r="48" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="53" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="47">
         <v>5.0999999999999996</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F48" s="32">
         <f t="shared" si="5"/>
@@ -6161,13 +6164,13 @@
       <c r="GP48" s="7"/>
     </row>
     <row r="49" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="53"/>
-      <c r="C49" s="50"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="45">
         <v>5.2</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F49" s="33">
         <f t="shared" si="5"/>
@@ -6241,8 +6244,8 @@
       <c r="GP49" s="7"/>
     </row>
     <row r="50" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="53"/>
-      <c r="C50" s="50"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="45">
         <v>5.3</v>
       </c>
@@ -6313,8 +6316,8 @@
       <c r="GP50" s="7"/>
     </row>
     <row r="51" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="53"/>
-      <c r="C51" s="50"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="45">
         <v>5.4</v>
       </c>
@@ -6385,8 +6388,8 @@
       <c r="GP51" s="7"/>
     </row>
     <row r="52" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="53"/>
-      <c r="C52" s="50"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="45">
         <v>5.5</v>
       </c>
@@ -6457,8 +6460,8 @@
       <c r="GP52" s="7"/>
     </row>
     <row r="53" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="53"/>
-      <c r="C53" s="50"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="45">
         <v>5.6</v>
       </c>
@@ -6529,8 +6532,8 @@
       <c r="GP53" s="7"/>
     </row>
     <row r="54" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="53"/>
-      <c r="C54" s="50"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="45">
         <v>5.7</v>
       </c>
@@ -6601,8 +6604,8 @@
       <c r="GP54" s="7"/>
     </row>
     <row r="55" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="53"/>
-      <c r="C55" s="50"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="45">
         <v>5.8</v>
       </c>
@@ -6673,8 +6676,8 @@
       <c r="GP55" s="7"/>
     </row>
     <row r="56" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="53"/>
-      <c r="C56" s="50"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="45">
         <v>5.9</v>
       </c>
@@ -6745,8 +6748,8 @@
       <c r="GP56" s="7"/>
     </row>
     <row r="57" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="54"/>
-      <c r="C57" s="51"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="55"/>
       <c r="D57" s="44"/>
       <c r="E57" s="14" t="s">
         <v>23</v>
@@ -6817,10 +6820,10 @@
       <c r="GP57" s="7"/>
     </row>
     <row r="58" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="47">
@@ -6893,8 +6896,8 @@
       <c r="GP58" s="7"/>
     </row>
     <row r="59" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="53"/>
-      <c r="C59" s="50"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="45">
         <v>6.2</v>
       </c>
@@ -6965,8 +6968,8 @@
       <c r="GP59" s="7"/>
     </row>
     <row r="60" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="53"/>
-      <c r="C60" s="50"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="45">
         <v>6.3</v>
       </c>
@@ -7037,8 +7040,8 @@
       <c r="GP60" s="7"/>
     </row>
     <row r="61" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="53"/>
-      <c r="C61" s="50"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="45">
         <v>6.4</v>
       </c>
@@ -7109,8 +7112,8 @@
       <c r="GP61" s="7"/>
     </row>
     <row r="62" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="53"/>
-      <c r="C62" s="50"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="45">
         <v>6.5</v>
       </c>
@@ -7181,8 +7184,8 @@
       <c r="GP62" s="7"/>
     </row>
     <row r="63" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="53"/>
-      <c r="C63" s="50"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="45">
         <v>6.6</v>
       </c>
@@ -7253,8 +7256,8 @@
       <c r="GP63" s="7"/>
     </row>
     <row r="64" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="53"/>
-      <c r="C64" s="50"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="45">
         <v>6.7</v>
       </c>
@@ -7325,8 +7328,8 @@
       <c r="GP64" s="7"/>
     </row>
     <row r="65" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="53"/>
-      <c r="C65" s="50"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="45">
         <v>6.8</v>
       </c>
@@ -7397,8 +7400,8 @@
       <c r="GP65" s="7"/>
     </row>
     <row r="66" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="53"/>
-      <c r="C66" s="50"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="45">
         <v>6.9</v>
       </c>
@@ -7469,8 +7472,8 @@
       <c r="GP66" s="7"/>
     </row>
     <row r="67" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="54"/>
-      <c r="C67" s="51"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="55"/>
       <c r="D67" s="44"/>
       <c r="E67" s="14" t="s">
         <v>23</v>
@@ -7541,10 +7544,10 @@
       <c r="GP67" s="7"/>
     </row>
     <row r="68" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="53" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="47">
@@ -7617,8 +7620,8 @@
       <c r="GP68" s="7"/>
     </row>
     <row r="69" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="53"/>
-      <c r="C69" s="50"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="45">
         <v>7.2</v>
       </c>
@@ -7689,8 +7692,8 @@
       <c r="GP69" s="7"/>
     </row>
     <row r="70" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="53"/>
-      <c r="C70" s="50"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="45">
         <v>7.3</v>
       </c>
@@ -7761,8 +7764,8 @@
       <c r="GP70" s="7"/>
     </row>
     <row r="71" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="53"/>
-      <c r="C71" s="50"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="45">
         <v>7.4</v>
       </c>
@@ -7833,8 +7836,8 @@
       <c r="GP71" s="7"/>
     </row>
     <row r="72" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="53"/>
-      <c r="C72" s="50"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="45">
         <v>7.5</v>
       </c>
@@ -7905,8 +7908,8 @@
       <c r="GP72" s="7"/>
     </row>
     <row r="73" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="53"/>
-      <c r="C73" s="50"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="45">
         <v>7.6</v>
       </c>
@@ -7977,8 +7980,8 @@
       <c r="GP73" s="7"/>
     </row>
     <row r="74" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="53"/>
-      <c r="C74" s="50"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="45">
         <v>7.7</v>
       </c>
@@ -8049,8 +8052,8 @@
       <c r="GP74" s="7"/>
     </row>
     <row r="75" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="53"/>
-      <c r="C75" s="50"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="45">
         <v>7.8</v>
       </c>
@@ -8121,8 +8124,8 @@
       <c r="GP75" s="7"/>
     </row>
     <row r="76" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76" s="53"/>
-      <c r="C76" s="50"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="54"/>
       <c r="D76" s="45">
         <v>7.9</v>
       </c>
@@ -8193,8 +8196,8 @@
       <c r="GP76" s="7"/>
     </row>
     <row r="77" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77" s="54"/>
-      <c r="C77" s="51"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="44"/>
       <c r="E77" s="14" t="s">
         <v>23</v>
@@ -8265,10 +8268,10 @@
       <c r="GP77" s="7"/>
     </row>
     <row r="78" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="53" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="47">
@@ -8341,8 +8344,8 @@
       <c r="GP78" s="7"/>
     </row>
     <row r="79" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="59"/>
-      <c r="C79" s="50"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="45">
         <v>7.2</v>
       </c>
@@ -8413,8 +8416,8 @@
       <c r="GP79" s="7"/>
     </row>
     <row r="80" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="59"/>
-      <c r="C80" s="50"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="45">
         <v>7.3</v>
       </c>
@@ -8485,8 +8488,8 @@
       <c r="GP80" s="7"/>
     </row>
     <row r="81" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="59"/>
-      <c r="C81" s="50"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="54"/>
       <c r="D81" s="45">
         <v>7.4</v>
       </c>
@@ -8557,8 +8560,8 @@
       <c r="GP81" s="7"/>
     </row>
     <row r="82" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="59"/>
-      <c r="C82" s="50"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="45">
         <v>7.5</v>
       </c>
@@ -8629,8 +8632,8 @@
       <c r="GP82" s="7"/>
     </row>
     <row r="83" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="59"/>
-      <c r="C83" s="50"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="45">
         <v>7.6</v>
       </c>
@@ -8701,8 +8704,8 @@
       <c r="GP83" s="7"/>
     </row>
     <row r="84" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="59"/>
-      <c r="C84" s="50"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="45">
         <v>7.7</v>
       </c>
@@ -8773,8 +8776,8 @@
       <c r="GP84" s="7"/>
     </row>
     <row r="85" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="59"/>
-      <c r="C85" s="50"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="45">
         <v>7.8</v>
       </c>
@@ -8845,8 +8848,8 @@
       <c r="GP85" s="7"/>
     </row>
     <row r="86" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="59"/>
-      <c r="C86" s="50"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="54"/>
       <c r="D86" s="45">
         <v>7.9</v>
       </c>
@@ -8917,8 +8920,8 @@
       <c r="GP86" s="7"/>
     </row>
     <row r="87" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="60"/>
-      <c r="C87" s="51"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="55"/>
       <c r="D87" s="44"/>
       <c r="E87" s="14" t="s">
         <v>23</v>
@@ -9861,6 +9864,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:C16"/>
     <mergeCell ref="B78:B87"/>
     <mergeCell ref="C78:C87"/>
     <mergeCell ref="B27:B36"/>
@@ -9877,13 +9887,6 @@
     <mergeCell ref="C27:C36"/>
     <mergeCell ref="B6:B16"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/timing/time_sheet.xlsx
+++ b/timing/time_sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="55">
   <si>
     <t>1.</t>
   </si>
@@ -207,6 +207,9 @@
       </rPr>
       <t>CATALOG CLASELE 9 - 12 bazat pe MVC simplu</t>
     </r>
+  </si>
+  <si>
+    <t>Adapt CSS code for proper display</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -601,6 +604,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,9 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,10 +958,10 @@
   <dimension ref="A1:GQ100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="AD22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="AF42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AG27" sqref="AG27"/>
+      <selection pane="bottomRight" activeCell="AN48" sqref="AN48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -972,57 +978,57 @@
   <sheetData>
     <row r="1" spans="1:199" x14ac:dyDescent="0.25">
       <c r="B1" s="39"/>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="P1" s="59" t="s">
+      <c r="D1" s="64"/>
+      <c r="AH1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="61" t="s">
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="61" t="s">
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="61" t="s">
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="63"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="51"/>
     </row>
     <row r="2" spans="1:199" x14ac:dyDescent="0.25">
       <c r="B2" s="41"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:199" x14ac:dyDescent="0.25">
       <c r="B3" s="40"/>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="12"/>
       <c r="G3" s="15" t="s">
         <v>14</v>
@@ -1612,7 +1618,7 @@
       </c>
       <c r="F4" s="30">
         <f t="shared" ref="F4:AN4" si="0">SUM(F6:F100)</f>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G4" s="35">
         <f t="shared" si="0"/>
@@ -1716,19 +1722,19 @@
       </c>
       <c r="AF4" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG4" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH4" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI4" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ4" s="36">
         <f t="shared" si="0"/>
@@ -1736,11 +1742,11 @@
       </c>
       <c r="AK4" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL4" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM4" s="35">
         <f t="shared" si="0"/>
@@ -2978,10 +2984,10 @@
       </c>
     </row>
     <row r="6" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="45">
@@ -3059,8 +3065,8 @@
       <c r="GP6" s="7"/>
     </row>
     <row r="7" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="45">
         <v>1.2</v>
       </c>
@@ -3135,8 +3141,8 @@
       <c r="GP7" s="7"/>
     </row>
     <row r="8" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="45">
         <v>1.3</v>
       </c>
@@ -3211,8 +3217,8 @@
       <c r="GP8" s="7"/>
     </row>
     <row r="9" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="45">
         <v>1.4</v>
       </c>
@@ -3290,8 +3296,8 @@
       <c r="GP9" s="7"/>
     </row>
     <row r="10" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="45">
         <v>1.5</v>
       </c>
@@ -3369,8 +3375,8 @@
       <c r="GP10" s="7"/>
     </row>
     <row r="11" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="45">
         <v>1.6</v>
       </c>
@@ -3445,15 +3451,17 @@
       <c r="GP11" s="7"/>
     </row>
     <row r="12" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="45">
         <v>1.7</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F12" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -3465,8 +3473,19 @@
       <c r="W12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
+      <c r="AH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>1</v>
+      </c>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
+      <c r="AK12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
       <c r="AX12" s="7"/>
@@ -3517,8 +3536,8 @@
       <c r="GP12" s="7"/>
     </row>
     <row r="13" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="57"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="45">
         <v>1.8</v>
       </c>
@@ -3589,8 +3608,8 @@
       <c r="GP13" s="7"/>
     </row>
     <row r="14" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
-      <c r="C14" s="54"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="45">
         <v>1.9</v>
       </c>
@@ -3661,8 +3680,8 @@
       <c r="GP14" s="7"/>
     </row>
     <row r="15" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="46">
         <v>1.1000000000000001</v>
       </c>
@@ -3733,8 +3752,8 @@
       <c r="GP15" s="7"/>
     </row>
     <row r="16" spans="1:199" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="44"/>
       <c r="E16" s="14" t="s">
         <v>23</v>
@@ -3805,10 +3824,10 @@
       <c r="GP16" s="7"/>
     </row>
     <row r="17" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="55" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="47">
@@ -3881,8 +3900,8 @@
       <c r="GP17" s="7"/>
     </row>
     <row r="18" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="45">
         <v>2.2000000000000002</v>
       </c>
@@ -3961,8 +3980,8 @@
       <c r="GP18" s="7"/>
     </row>
     <row r="19" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="45">
         <v>2.2999999999999998</v>
       </c>
@@ -4033,8 +4052,8 @@
       <c r="GP19" s="7"/>
     </row>
     <row r="20" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="45">
         <v>2.4</v>
       </c>
@@ -4105,8 +4124,8 @@
       <c r="GP20" s="7"/>
     </row>
     <row r="21" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="45">
         <v>2.5</v>
       </c>
@@ -4177,8 +4196,8 @@
       <c r="GP21" s="7"/>
     </row>
     <row r="22" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="45">
         <v>2.6</v>
       </c>
@@ -4249,8 +4268,8 @@
       <c r="GP22" s="7"/>
     </row>
     <row r="23" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
-      <c r="C23" s="54"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="45">
         <v>2.7</v>
       </c>
@@ -4321,8 +4340,8 @@
       <c r="GP23" s="7"/>
     </row>
     <row r="24" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="54"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="45">
         <v>2.8</v>
       </c>
@@ -4393,8 +4412,8 @@
       <c r="GP24" s="7"/>
     </row>
     <row r="25" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="45">
         <v>2.9</v>
       </c>
@@ -4465,8 +4484,8 @@
       <c r="GP25" s="7"/>
     </row>
     <row r="26" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="55"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="44"/>
       <c r="E26" s="14" t="s">
         <v>23</v>
@@ -4537,10 +4556,10 @@
       <c r="GP26" s="7"/>
     </row>
     <row r="27" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="55" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="47">
@@ -4618,8 +4637,8 @@
       <c r="GP27" s="7"/>
     </row>
     <row r="28" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="57"/>
-      <c r="C28" s="54"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="45">
         <v>3.2</v>
       </c>
@@ -4690,8 +4709,8 @@
       <c r="GP28" s="7"/>
     </row>
     <row r="29" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="57"/>
-      <c r="C29" s="54"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="45">
         <v>3.3</v>
       </c>
@@ -4766,8 +4785,8 @@
       <c r="GP29" s="7"/>
     </row>
     <row r="30" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="57"/>
-      <c r="C30" s="54"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="45">
         <v>3.4</v>
       </c>
@@ -4840,8 +4859,8 @@
       <c r="GP30" s="7"/>
     </row>
     <row r="31" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="57"/>
-      <c r="C31" s="54"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="45">
         <v>3.5</v>
       </c>
@@ -4914,8 +4933,8 @@
       <c r="GP31" s="7"/>
     </row>
     <row r="32" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="57"/>
-      <c r="C32" s="54"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="45">
         <v>3.6</v>
       </c>
@@ -4988,8 +5007,8 @@
       <c r="GP32" s="7"/>
     </row>
     <row r="33" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="57"/>
-      <c r="C33" s="54"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="45">
         <v>3.7</v>
       </c>
@@ -5060,8 +5079,8 @@
       <c r="GP33" s="7"/>
     </row>
     <row r="34" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
-      <c r="C34" s="54"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="45">
         <v>3.8</v>
       </c>
@@ -5132,8 +5151,8 @@
       <c r="GP34" s="7"/>
     </row>
     <row r="35" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
-      <c r="C35" s="54"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="45">
         <v>3.9</v>
       </c>
@@ -5204,8 +5223,8 @@
       <c r="GP35" s="7"/>
     </row>
     <row r="36" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="58"/>
-      <c r="C36" s="55"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="44"/>
       <c r="E36" s="14" t="s">
         <v>23</v>
@@ -5276,10 +5295,10 @@
       <c r="GP36" s="7"/>
     </row>
     <row r="37" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="55" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="47">
@@ -5290,7 +5309,7 @@
       </c>
       <c r="F37" s="32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -5303,7 +5322,9 @@
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AJ37" s="7"/>
-      <c r="AK37" s="7"/>
+      <c r="AK37" s="7">
+        <v>2</v>
+      </c>
       <c r="AQ37" s="7"/>
       <c r="AR37" s="7"/>
       <c r="AX37" s="7"/>
@@ -5354,8 +5375,8 @@
       <c r="GP37" s="7"/>
     </row>
     <row r="38" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="45">
         <v>4.2</v>
       </c>
@@ -5428,8 +5449,8 @@
       <c r="GP38" s="7"/>
     </row>
     <row r="39" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="45">
         <v>4.3</v>
       </c>
@@ -5502,8 +5523,8 @@
       <c r="GP39" s="7"/>
     </row>
     <row r="40" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="57"/>
-      <c r="C40" s="54"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="45">
         <v>4.4000000000000004</v>
       </c>
@@ -5576,8 +5597,8 @@
       <c r="GP40" s="7"/>
     </row>
     <row r="41" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="57"/>
-      <c r="C41" s="54"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="45">
         <v>4.5</v>
       </c>
@@ -5652,8 +5673,8 @@
       <c r="GP41" s="7"/>
     </row>
     <row r="42" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
-      <c r="C42" s="54"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="45">
         <v>4.5999999999999996</v>
       </c>
@@ -5726,8 +5747,8 @@
       <c r="GP42" s="7"/>
     </row>
     <row r="43" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
-      <c r="C43" s="54"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="45">
         <v>4.7</v>
       </c>
@@ -5798,8 +5819,8 @@
       <c r="GP43" s="7"/>
     </row>
     <row r="44" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
-      <c r="C44" s="54"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="45">
         <v>4.8</v>
       </c>
@@ -5870,8 +5891,8 @@
       <c r="GP44" s="7"/>
     </row>
     <row r="45" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="57"/>
-      <c r="C45" s="54"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="45">
         <v>4.9000000000000004</v>
       </c>
@@ -5942,8 +5963,8 @@
       <c r="GP45" s="7"/>
     </row>
     <row r="46" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
-      <c r="C46" s="54"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="46">
         <v>4.0999999999999996</v>
       </c>
@@ -6014,8 +6035,8 @@
       <c r="GP46" s="7"/>
     </row>
     <row r="47" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="58"/>
-      <c r="C47" s="55"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="44"/>
       <c r="E47" s="14" t="s">
         <v>23</v>
@@ -6086,10 +6107,10 @@
       <c r="GP47" s="7"/>
     </row>
     <row r="48" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="55" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="47">
@@ -6100,7 +6121,7 @@
       </c>
       <c r="F48" s="32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -6112,8 +6133,19 @@
       <c r="W48" s="7"/>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
+      <c r="AH48" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>2</v>
+      </c>
       <c r="AJ48" s="7"/>
-      <c r="AK48" s="7"/>
+      <c r="AK48" s="7">
+        <v>3</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ48" s="7"/>
       <c r="AR48" s="7"/>
       <c r="AX48" s="7"/>
@@ -6164,8 +6196,8 @@
       <c r="GP48" s="7"/>
     </row>
     <row r="49" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
-      <c r="C49" s="54"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="45">
         <v>5.2</v>
       </c>
@@ -6174,7 +6206,7 @@
       </c>
       <c r="F49" s="33">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6192,6 +6224,12 @@
       <c r="W49" s="7"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
+      <c r="AF49" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>3</v>
+      </c>
       <c r="AJ49" s="7"/>
       <c r="AK49" s="7"/>
       <c r="AQ49" s="7"/>
@@ -6244,8 +6282,8 @@
       <c r="GP49" s="7"/>
     </row>
     <row r="50" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="57"/>
-      <c r="C50" s="54"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="45">
         <v>5.3</v>
       </c>
@@ -6316,8 +6354,8 @@
       <c r="GP50" s="7"/>
     </row>
     <row r="51" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
-      <c r="C51" s="54"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="45">
         <v>5.4</v>
       </c>
@@ -6388,8 +6426,8 @@
       <c r="GP51" s="7"/>
     </row>
     <row r="52" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
-      <c r="C52" s="54"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="56"/>
       <c r="D52" s="45">
         <v>5.5</v>
       </c>
@@ -6460,8 +6498,8 @@
       <c r="GP52" s="7"/>
     </row>
     <row r="53" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
-      <c r="C53" s="54"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="56"/>
       <c r="D53" s="45">
         <v>5.6</v>
       </c>
@@ -6532,8 +6570,8 @@
       <c r="GP53" s="7"/>
     </row>
     <row r="54" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="57"/>
-      <c r="C54" s="54"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="45">
         <v>5.7</v>
       </c>
@@ -6604,8 +6642,8 @@
       <c r="GP54" s="7"/>
     </row>
     <row r="55" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
-      <c r="C55" s="54"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="45">
         <v>5.8</v>
       </c>
@@ -6676,8 +6714,8 @@
       <c r="GP55" s="7"/>
     </row>
     <row r="56" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
-      <c r="C56" s="54"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="56"/>
       <c r="D56" s="45">
         <v>5.9</v>
       </c>
@@ -6748,8 +6786,8 @@
       <c r="GP56" s="7"/>
     </row>
     <row r="57" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="58"/>
-      <c r="C57" s="55"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="44"/>
       <c r="E57" s="14" t="s">
         <v>23</v>
@@ -6820,10 +6858,10 @@
       <c r="GP57" s="7"/>
     </row>
     <row r="58" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="47">
@@ -6896,8 +6934,8 @@
       <c r="GP58" s="7"/>
     </row>
     <row r="59" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
-      <c r="C59" s="54"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="56"/>
       <c r="D59" s="45">
         <v>6.2</v>
       </c>
@@ -6968,8 +7006,8 @@
       <c r="GP59" s="7"/>
     </row>
     <row r="60" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="57"/>
-      <c r="C60" s="54"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="56"/>
       <c r="D60" s="45">
         <v>6.3</v>
       </c>
@@ -7040,8 +7078,8 @@
       <c r="GP60" s="7"/>
     </row>
     <row r="61" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="57"/>
-      <c r="C61" s="54"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="45">
         <v>6.4</v>
       </c>
@@ -7112,8 +7150,8 @@
       <c r="GP61" s="7"/>
     </row>
     <row r="62" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
-      <c r="C62" s="54"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="45">
         <v>6.5</v>
       </c>
@@ -7184,8 +7222,8 @@
       <c r="GP62" s="7"/>
     </row>
     <row r="63" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="57"/>
-      <c r="C63" s="54"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="45">
         <v>6.6</v>
       </c>
@@ -7256,8 +7294,8 @@
       <c r="GP63" s="7"/>
     </row>
     <row r="64" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
-      <c r="C64" s="54"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="45">
         <v>6.7</v>
       </c>
@@ -7328,8 +7366,8 @@
       <c r="GP64" s="7"/>
     </row>
     <row r="65" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
-      <c r="C65" s="54"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="56"/>
       <c r="D65" s="45">
         <v>6.8</v>
       </c>
@@ -7400,8 +7438,8 @@
       <c r="GP65" s="7"/>
     </row>
     <row r="66" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="57"/>
-      <c r="C66" s="54"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="45">
         <v>6.9</v>
       </c>
@@ -7472,8 +7510,8 @@
       <c r="GP66" s="7"/>
     </row>
     <row r="67" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="58"/>
-      <c r="C67" s="55"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="44"/>
       <c r="E67" s="14" t="s">
         <v>23</v>
@@ -7544,10 +7582,10 @@
       <c r="GP67" s="7"/>
     </row>
     <row r="68" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="55" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="47">
@@ -7620,8 +7658,8 @@
       <c r="GP68" s="7"/>
     </row>
     <row r="69" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
-      <c r="C69" s="54"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="56"/>
       <c r="D69" s="45">
         <v>7.2</v>
       </c>
@@ -7692,8 +7730,8 @@
       <c r="GP69" s="7"/>
     </row>
     <row r="70" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="57"/>
-      <c r="C70" s="54"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="56"/>
       <c r="D70" s="45">
         <v>7.3</v>
       </c>
@@ -7764,8 +7802,8 @@
       <c r="GP70" s="7"/>
     </row>
     <row r="71" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
-      <c r="C71" s="54"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="45">
         <v>7.4</v>
       </c>
@@ -7836,8 +7874,8 @@
       <c r="GP71" s="7"/>
     </row>
     <row r="72" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="57"/>
-      <c r="C72" s="54"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="56"/>
       <c r="D72" s="45">
         <v>7.5</v>
       </c>
@@ -7908,8 +7946,8 @@
       <c r="GP72" s="7"/>
     </row>
     <row r="73" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="57"/>
-      <c r="C73" s="54"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="45">
         <v>7.6</v>
       </c>
@@ -7980,8 +8018,8 @@
       <c r="GP73" s="7"/>
     </row>
     <row r="74" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="57"/>
-      <c r="C74" s="54"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="45">
         <v>7.7</v>
       </c>
@@ -8052,8 +8090,8 @@
       <c r="GP74" s="7"/>
     </row>
     <row r="75" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="57"/>
-      <c r="C75" s="54"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="45">
         <v>7.8</v>
       </c>
@@ -8124,8 +8162,8 @@
       <c r="GP75" s="7"/>
     </row>
     <row r="76" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76" s="57"/>
-      <c r="C76" s="54"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="56"/>
       <c r="D76" s="45">
         <v>7.9</v>
       </c>
@@ -8196,8 +8234,8 @@
       <c r="GP76" s="7"/>
     </row>
     <row r="77" spans="2:198" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77" s="58"/>
-      <c r="C77" s="55"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="44"/>
       <c r="E77" s="14" t="s">
         <v>23</v>
@@ -8268,14 +8306,14 @@
       <c r="GP77" s="7"/>
     </row>
     <row r="78" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="55" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="47">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="32">
@@ -8344,10 +8382,10 @@
       <c r="GP78" s="7"/>
     </row>
     <row r="79" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="51"/>
-      <c r="C79" s="54"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="56"/>
       <c r="D79" s="45">
-        <v>7.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="33">
@@ -8416,10 +8454,10 @@
       <c r="GP79" s="7"/>
     </row>
     <row r="80" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="51"/>
-      <c r="C80" s="54"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="56"/>
       <c r="D80" s="45">
-        <v>7.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="33">
@@ -8488,10 +8526,10 @@
       <c r="GP80" s="7"/>
     </row>
     <row r="81" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="51"/>
-      <c r="C81" s="54"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="56"/>
       <c r="D81" s="45">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="33">
@@ -8560,10 +8598,10 @@
       <c r="GP81" s="7"/>
     </row>
     <row r="82" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="51"/>
-      <c r="C82" s="54"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="56"/>
       <c r="D82" s="45">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="33">
@@ -8632,10 +8670,10 @@
       <c r="GP82" s="7"/>
     </row>
     <row r="83" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="51"/>
-      <c r="C83" s="54"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="56"/>
       <c r="D83" s="45">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="33">
@@ -8704,10 +8742,10 @@
       <c r="GP83" s="7"/>
     </row>
     <row r="84" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="51"/>
-      <c r="C84" s="54"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="56"/>
       <c r="D84" s="45">
-        <v>7.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="33">
@@ -8776,10 +8814,10 @@
       <c r="GP84" s="7"/>
     </row>
     <row r="85" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="51"/>
-      <c r="C85" s="54"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="56"/>
       <c r="D85" s="45">
-        <v>7.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="33">
@@ -8848,10 +8886,10 @@
       <c r="GP85" s="7"/>
     </row>
     <row r="86" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="51"/>
-      <c r="C86" s="54"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="56"/>
       <c r="D86" s="45">
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="33">
@@ -8920,8 +8958,8 @@
       <c r="GP86" s="7"/>
     </row>
     <row r="87" spans="2:198" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="52"/>
-      <c r="C87" s="55"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="57"/>
       <c r="D87" s="44"/>
       <c r="E87" s="14" t="s">
         <v>23</v>
@@ -9863,19 +9901,18 @@
       <c r="GP100" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
     <mergeCell ref="C17:C26"/>
     <mergeCell ref="B17:B26"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C6:C16"/>
     <mergeCell ref="B78:B87"/>
     <mergeCell ref="C78:C87"/>
     <mergeCell ref="B27:B36"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="B58:B67"/>
     <mergeCell ref="C58:C67"/>
     <mergeCell ref="B68:B77"/>

--- a/timing/time_sheet.xlsx
+++ b/timing/time_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="-105" windowWidth="19590" windowHeight="12525" tabRatio="163"/>
+    <workbookView xWindow="2205" yWindow="-105" windowWidth="19590" windowHeight="12525" tabRatio="123"/>
   </bookViews>
   <sheets>
     <sheet name="Time sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="72">
   <si>
     <t>1.</t>
   </si>
@@ -210,6 +210,57 @@
   </si>
   <si>
     <t>Adapt CSS code for proper display</t>
+  </si>
+  <si>
+    <t>Test the application - IE</t>
+  </si>
+  <si>
+    <t>Test the application - Chrome</t>
+  </si>
+  <si>
+    <t>Test the application - Mozilla Firefox</t>
+  </si>
+  <si>
+    <t>Test the application - Opera</t>
+  </si>
+  <si>
+    <t>Test the application - windows 7 / windows 10 / MAC</t>
+  </si>
+  <si>
+    <t>Define behaviour for Welcome page</t>
+  </si>
+  <si>
+    <t>Learning JavaScript</t>
+  </si>
+  <si>
+    <t>Create tabel - notes</t>
+  </si>
+  <si>
+    <t>Create tabel - absences</t>
+  </si>
+  <si>
+    <t>Create tabel - students</t>
+  </si>
+  <si>
+    <t>Create tabel - parents</t>
+  </si>
+  <si>
+    <t>Create tabel - professors</t>
+  </si>
+  <si>
+    <t>Add in header: show absences - button for all users</t>
+  </si>
+  <si>
+    <t>Create main / home page - not logged in</t>
+  </si>
+  <si>
+    <t>Design Footer - include: contact us / links to FB / TW / …</t>
+  </si>
+  <si>
+    <t>Add 1 new button in header - About us</t>
+  </si>
+  <si>
+    <t>Design the log-in form - consider type of possible user</t>
   </si>
 </sst>
 </file>
@@ -455,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,6 +699,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,10 +1015,10 @@
   <dimension ref="A1:GQ100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="AF42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="AJ10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AN48" sqref="AN48"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1675,7 @@
       </c>
       <c r="F4" s="30">
         <f t="shared" ref="F4:AN4" si="0">SUM(F6:F100)</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G4" s="35">
         <f t="shared" si="0"/>
@@ -1750,15 +1807,15 @@
       </c>
       <c r="AM4" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="35">
         <f t="shared" ref="AO4:CZ4" si="1">SUM(AO6:AO100)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="35">
         <f t="shared" si="1"/>
@@ -1766,15 +1823,15 @@
       </c>
       <c r="AQ4" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR4" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT4" s="35">
         <f t="shared" si="1"/>
@@ -2990,7 +3047,7 @@
       <c r="C6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="65">
         <v>1.1000000000000001</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -3143,7 +3200,7 @@
     <row r="8" spans="1:199" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="59"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="45">
+      <c r="D8" s="65">
         <v>1.3</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -3377,7 +3434,7 @@
     <row r="11" spans="1:199" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="59"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="45">
+      <c r="D11" s="66">
         <v>1.6</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -3385,7 +3442,7 @@
       </c>
       <c r="F11" s="33">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -3402,7 +3459,9 @@
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
       <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
+      <c r="AR11" s="7">
+        <v>1</v>
+      </c>
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="BE11" s="7"/>
@@ -3461,7 +3520,7 @@
       </c>
       <c r="F12" s="33">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -3484,6 +3543,9 @@
         <v>1</v>
       </c>
       <c r="AL12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="1">
         <v>1</v>
       </c>
       <c r="AQ12" s="7"/>
@@ -3985,7 +4047,9 @@
       <c r="D19" s="45">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="F19" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4057,7 +4121,9 @@
       <c r="D20" s="45">
         <v>2.4</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="F20" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4129,7 +4195,9 @@
       <c r="D21" s="45">
         <v>2.5</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="F21" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4273,7 +4341,9 @@
       <c r="D23" s="45">
         <v>2.7</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="F23" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5309,7 +5379,7 @@
       </c>
       <c r="F37" s="32">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -5324,6 +5394,9 @@
       <c r="AJ37" s="7"/>
       <c r="AK37" s="7">
         <v>2</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>1</v>
       </c>
       <c r="AQ37" s="7"/>
       <c r="AR37" s="7"/>
@@ -5599,7 +5672,7 @@
     <row r="41" spans="2:198" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="59"/>
       <c r="C41" s="56"/>
-      <c r="D41" s="45">
+      <c r="D41" s="65">
         <v>4.5</v>
       </c>
       <c r="E41" s="12" t="s">
@@ -5824,7 +5897,9 @@
       <c r="D44" s="45">
         <v>4.8</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="F44" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6206,7 +6281,7 @@
       </c>
       <c r="F49" s="33">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -6232,8 +6307,16 @@
       </c>
       <c r="AJ49" s="7"/>
       <c r="AK49" s="7"/>
-      <c r="AQ49" s="7"/>
+      <c r="AM49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ49" s="7">
+        <v>2</v>
+      </c>
       <c r="AR49" s="7"/>
+      <c r="AS49" s="1">
+        <v>2</v>
+      </c>
       <c r="AX49" s="7"/>
       <c r="AY49" s="7"/>
       <c r="BE49" s="7"/>
@@ -6287,7 +6370,9 @@
       <c r="D50" s="45">
         <v>5.3</v>
       </c>
-      <c r="E50" s="12"/>
+      <c r="E50" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="F50" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6359,7 +6444,9 @@
       <c r="D51" s="45">
         <v>5.4</v>
       </c>
-      <c r="E51" s="12"/>
+      <c r="E51" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="F51" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6431,7 +6518,9 @@
       <c r="D52" s="45">
         <v>5.5</v>
       </c>
-      <c r="E52" s="12"/>
+      <c r="E52" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="F52" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6503,7 +6592,9 @@
       <c r="D53" s="45">
         <v>5.6</v>
       </c>
-      <c r="E53" s="12"/>
+      <c r="E53" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="F53" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6575,7 +6666,9 @@
       <c r="D54" s="45">
         <v>5.7</v>
       </c>
-      <c r="E54" s="12"/>
+      <c r="E54" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="F54" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6867,7 +6960,9 @@
       <c r="D58" s="47">
         <v>6.1</v>
       </c>
-      <c r="E58" s="11"/>
+      <c r="E58" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="F58" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6939,7 +7034,9 @@
       <c r="D59" s="45">
         <v>6.2</v>
       </c>
-      <c r="E59" s="12"/>
+      <c r="E59" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="F59" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7591,7 +7688,9 @@
       <c r="D68" s="47">
         <v>7.1</v>
       </c>
-      <c r="E68" s="11"/>
+      <c r="E68" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="F68" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7663,7 +7762,9 @@
       <c r="D69" s="45">
         <v>7.2</v>
       </c>
-      <c r="E69" s="12"/>
+      <c r="E69" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="F69" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7735,7 +7836,9 @@
       <c r="D70" s="45">
         <v>7.3</v>
       </c>
-      <c r="E70" s="12"/>
+      <c r="E70" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="F70" s="33">
         <f t="shared" ref="F70:F100" si="6">SUM(G70:FM70)</f>
         <v>0</v>
@@ -7807,7 +7910,9 @@
       <c r="D71" s="45">
         <v>7.4</v>
       </c>
-      <c r="E71" s="12"/>
+      <c r="E71" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="F71" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7879,7 +7984,9 @@
       <c r="D72" s="45">
         <v>7.5</v>
       </c>
-      <c r="E72" s="12"/>
+      <c r="E72" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="F72" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
